--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S14/S14_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S14/S14_dampingfactor.xlsx
@@ -14,147 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.024545091794027574</t>
-  </si>
-  <si>
-    <t>0.03814705659927581</t>
-  </si>
-  <si>
-    <t>0.06126664093664337</t>
-  </si>
-  <si>
-    <t>0.0936730585936697</t>
-  </si>
-  <si>
-    <t>0.14801389549331423</t>
-  </si>
-  <si>
-    <t>0.2338292278836381</t>
-  </si>
-  <si>
-    <t>0.35748710843978304</t>
-  </si>
-  <si>
-    <t>0.5836752441134525</t>
-  </si>
-  <si>
-    <t>0.8781558579220912</t>
-  </si>
-  <si>
-    <t>1.4102218729408755</t>
-  </si>
-  <si>
-    <t>2.1218604458584305</t>
-  </si>
-  <si>
-    <t>3.371831600452871</t>
-  </si>
-  <si>
-    <t>5.386765818439417</t>
-  </si>
-  <si>
-    <t>8.653866719826892</t>
-  </si>
-  <si>
-    <t>13.67842008340682</t>
-  </si>
-  <si>
-    <t>21.26907829994558</t>
-  </si>
-  <si>
-    <t>33.62168071635242</t>
-  </si>
-  <si>
-    <t>52.10900089639948</t>
-  </si>
-  <si>
-    <t>82.63341653409539</t>
-  </si>
-  <si>
-    <t>128.50842691502473</t>
-  </si>
-  <si>
-    <t>203.1391563494041</t>
-  </si>
-  <si>
-    <t>321.09419071170424</t>
-  </si>
-  <si>
-    <t>491.2040581189198</t>
-  </si>
-  <si>
-    <t>0.13161446633938642</t>
-  </si>
-  <si>
-    <t>0.14789040412471244</t>
-  </si>
-  <si>
-    <t>0.16055893729429693</t>
-  </si>
-  <si>
-    <t>0.18089768107369827</t>
-  </si>
-  <si>
-    <t>0.19378348328916964</t>
-  </si>
-  <si>
-    <t>0.21783073033300113</t>
-  </si>
-  <si>
-    <t>0.24920600176791072</t>
-  </si>
-  <si>
-    <t>0.2639135141141689</t>
-  </si>
-  <si>
-    <t>0.2805594945131682</t>
-  </si>
-  <si>
-    <t>0.31225601784795926</t>
-  </si>
-  <si>
-    <t>0.32691385174849075</t>
-  </si>
-  <si>
-    <t>0.3332225370121295</t>
-  </si>
-  <si>
-    <t>0.34939843529973025</t>
-  </si>
-  <si>
-    <t>0.35627719191924334</t>
-  </si>
-  <si>
-    <t>0.354917825359787</t>
-  </si>
-  <si>
-    <t>0.355868836174899</t>
-  </si>
-  <si>
-    <t>0.346207486238207</t>
-  </si>
-  <si>
-    <t>0.34700248099465275</t>
-  </si>
-  <si>
-    <t>0.33577996863022963</t>
-  </si>
-  <si>
-    <t>0.32816596062028236</t>
-  </si>
-  <si>
-    <t>0.3246720825493401</t>
-  </si>
-  <si>
-    <t>0.322568973189614</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -527,187 +392,187 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+      <c r="A2">
+        <v>0.02454509179402757</v>
+      </c>
+      <c r="B2">
+        <v>0.1316144663393864</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="A3">
+        <v>0.03814705659927581</v>
+      </c>
+      <c r="B3">
+        <v>0.1478904041247124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>0.06126664093664337</v>
+      </c>
+      <c r="B4">
+        <v>0.1605589372942969</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="A5">
+        <v>0.0936730585936697</v>
+      </c>
+      <c r="B5">
+        <v>0.1808976810736983</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
+      <c r="A6">
+        <v>0.1480138954933142</v>
+      </c>
+      <c r="B6">
+        <v>0.1937834832891696</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+      <c r="A7">
+        <v>0.2338292278836381</v>
+      </c>
+      <c r="B7">
+        <v>0.2178307303330011</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+      <c r="A8">
+        <v>0.357487108439783</v>
+      </c>
+      <c r="B8">
+        <v>0.2492060017679107</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+      <c r="A9">
+        <v>0.5836752441134525</v>
+      </c>
+      <c r="B9">
+        <v>0.2639135141141689</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="A10">
+        <v>0.8781558579220912</v>
+      </c>
+      <c r="B10">
+        <v>0.2805594945131682</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
+      <c r="A11">
+        <v>1.410221872940876</v>
+      </c>
+      <c r="B11">
+        <v>0.3122560178479593</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
+      <c r="A12">
+        <v>2.12186044585843</v>
+      </c>
+      <c r="B12">
+        <v>0.3269138517484907</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+      <c r="A13">
+        <v>3.371831600452871</v>
+      </c>
+      <c r="B13">
+        <v>0.3332225370121295</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
+      <c r="A14">
+        <v>5.386765818439417</v>
+      </c>
+      <c r="B14">
+        <v>0.3493984352997302</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
+      <c r="A15">
+        <v>8.653866719826892</v>
+      </c>
+      <c r="B15">
+        <v>0.3562771919192433</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
+      <c r="A16">
+        <v>13.67842008340682</v>
+      </c>
+      <c r="B16">
+        <v>0.354917825359787</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="A17">
+        <v>21.26907829994558</v>
+      </c>
+      <c r="B17">
+        <v>0.355868836174899</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
+      <c r="A18">
+        <v>33.62168071635242</v>
+      </c>
+      <c r="B18">
+        <v>0.346207486238207</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
+      <c r="A19">
+        <v>52.10900089639948</v>
+      </c>
+      <c r="B19">
+        <v>0.3470024809946528</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
+      <c r="A20">
+        <v>82.63341653409539</v>
+      </c>
+      <c r="B20">
+        <v>0.346207486238207</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
+      <c r="A21">
+        <v>128.5084269150247</v>
+      </c>
+      <c r="B21">
+        <v>0.3357799686302296</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
+      <c r="A22">
+        <v>203.1391563494041</v>
+      </c>
+      <c r="B22">
+        <v>0.3281659606202824</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
+      <c r="A23">
+        <v>321.0941907117042</v>
+      </c>
+      <c r="B23">
+        <v>0.3246720825493401</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
+      <c r="A24">
+        <v>491.2040581189198</v>
+      </c>
+      <c r="B24">
+        <v>0.322568973189614</v>
       </c>
     </row>
   </sheetData>
